--- a/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python共通メッセージ定義(SaaS対応).xlsx
+++ b/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python共通メッセージ定義(SaaS対応).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10530"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -560,10 +560,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Issue1.2</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>ST0102対応</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -581,14 +577,47 @@
   </si>
   <si>
     <t>[エラー]　データ変換処理が異常で終了しています。エラー詳細={1}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_本稼動_19531対応</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CCDE0010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[エラー]　{1}を実行しようとしましたが、OIC接続がタイムアウトしました。エラー詳細={2}</t>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツゾク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +789,13 @@
     <font>
       <sz val="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1060,7 +1096,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1148,9 +1184,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1230,6 +1263,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1248,6 +1288,15 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1257,18 +1306,57 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1277,54 +1365,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1335,6 +1375,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3289,516 +3334,516 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="74"/>
-    <col min="3" max="3" width="11.625" style="74" customWidth="1"/>
-    <col min="4" max="5" width="9" style="74"/>
-    <col min="6" max="6" width="9.5" style="74" customWidth="1"/>
-    <col min="7" max="258" width="9" style="74"/>
-    <col min="259" max="259" width="10.75" style="74" customWidth="1"/>
-    <col min="260" max="261" width="9" style="74"/>
-    <col min="262" max="262" width="9.5" style="74" customWidth="1"/>
-    <col min="263" max="514" width="9" style="74"/>
-    <col min="515" max="515" width="10.75" style="74" customWidth="1"/>
-    <col min="516" max="517" width="9" style="74"/>
-    <col min="518" max="518" width="9.5" style="74" customWidth="1"/>
-    <col min="519" max="770" width="9" style="74"/>
-    <col min="771" max="771" width="10.75" style="74" customWidth="1"/>
-    <col min="772" max="773" width="9" style="74"/>
-    <col min="774" max="774" width="9.5" style="74" customWidth="1"/>
-    <col min="775" max="1026" width="9" style="74"/>
-    <col min="1027" max="1027" width="10.75" style="74" customWidth="1"/>
-    <col min="1028" max="1029" width="9" style="74"/>
-    <col min="1030" max="1030" width="9.5" style="74" customWidth="1"/>
-    <col min="1031" max="1282" width="9" style="74"/>
-    <col min="1283" max="1283" width="10.75" style="74" customWidth="1"/>
-    <col min="1284" max="1285" width="9" style="74"/>
-    <col min="1286" max="1286" width="9.5" style="74" customWidth="1"/>
-    <col min="1287" max="1538" width="9" style="74"/>
-    <col min="1539" max="1539" width="10.75" style="74" customWidth="1"/>
-    <col min="1540" max="1541" width="9" style="74"/>
-    <col min="1542" max="1542" width="9.5" style="74" customWidth="1"/>
-    <col min="1543" max="1794" width="9" style="74"/>
-    <col min="1795" max="1795" width="10.75" style="74" customWidth="1"/>
-    <col min="1796" max="1797" width="9" style="74"/>
-    <col min="1798" max="1798" width="9.5" style="74" customWidth="1"/>
-    <col min="1799" max="2050" width="9" style="74"/>
-    <col min="2051" max="2051" width="10.75" style="74" customWidth="1"/>
-    <col min="2052" max="2053" width="9" style="74"/>
-    <col min="2054" max="2054" width="9.5" style="74" customWidth="1"/>
-    <col min="2055" max="2306" width="9" style="74"/>
-    <col min="2307" max="2307" width="10.75" style="74" customWidth="1"/>
-    <col min="2308" max="2309" width="9" style="74"/>
-    <col min="2310" max="2310" width="9.5" style="74" customWidth="1"/>
-    <col min="2311" max="2562" width="9" style="74"/>
-    <col min="2563" max="2563" width="10.75" style="74" customWidth="1"/>
-    <col min="2564" max="2565" width="9" style="74"/>
-    <col min="2566" max="2566" width="9.5" style="74" customWidth="1"/>
-    <col min="2567" max="2818" width="9" style="74"/>
-    <col min="2819" max="2819" width="10.75" style="74" customWidth="1"/>
-    <col min="2820" max="2821" width="9" style="74"/>
-    <col min="2822" max="2822" width="9.5" style="74" customWidth="1"/>
-    <col min="2823" max="3074" width="9" style="74"/>
-    <col min="3075" max="3075" width="10.75" style="74" customWidth="1"/>
-    <col min="3076" max="3077" width="9" style="74"/>
-    <col min="3078" max="3078" width="9.5" style="74" customWidth="1"/>
-    <col min="3079" max="3330" width="9" style="74"/>
-    <col min="3331" max="3331" width="10.75" style="74" customWidth="1"/>
-    <col min="3332" max="3333" width="9" style="74"/>
-    <col min="3334" max="3334" width="9.5" style="74" customWidth="1"/>
-    <col min="3335" max="3586" width="9" style="74"/>
-    <col min="3587" max="3587" width="10.75" style="74" customWidth="1"/>
-    <col min="3588" max="3589" width="9" style="74"/>
-    <col min="3590" max="3590" width="9.5" style="74" customWidth="1"/>
-    <col min="3591" max="3842" width="9" style="74"/>
-    <col min="3843" max="3843" width="10.75" style="74" customWidth="1"/>
-    <col min="3844" max="3845" width="9" style="74"/>
-    <col min="3846" max="3846" width="9.5" style="74" customWidth="1"/>
-    <col min="3847" max="4098" width="9" style="74"/>
-    <col min="4099" max="4099" width="10.75" style="74" customWidth="1"/>
-    <col min="4100" max="4101" width="9" style="74"/>
-    <col min="4102" max="4102" width="9.5" style="74" customWidth="1"/>
-    <col min="4103" max="4354" width="9" style="74"/>
-    <col min="4355" max="4355" width="10.75" style="74" customWidth="1"/>
-    <col min="4356" max="4357" width="9" style="74"/>
-    <col min="4358" max="4358" width="9.5" style="74" customWidth="1"/>
-    <col min="4359" max="4610" width="9" style="74"/>
-    <col min="4611" max="4611" width="10.75" style="74" customWidth="1"/>
-    <col min="4612" max="4613" width="9" style="74"/>
-    <col min="4614" max="4614" width="9.5" style="74" customWidth="1"/>
-    <col min="4615" max="4866" width="9" style="74"/>
-    <col min="4867" max="4867" width="10.75" style="74" customWidth="1"/>
-    <col min="4868" max="4869" width="9" style="74"/>
-    <col min="4870" max="4870" width="9.5" style="74" customWidth="1"/>
-    <col min="4871" max="5122" width="9" style="74"/>
-    <col min="5123" max="5123" width="10.75" style="74" customWidth="1"/>
-    <col min="5124" max="5125" width="9" style="74"/>
-    <col min="5126" max="5126" width="9.5" style="74" customWidth="1"/>
-    <col min="5127" max="5378" width="9" style="74"/>
-    <col min="5379" max="5379" width="10.75" style="74" customWidth="1"/>
-    <col min="5380" max="5381" width="9" style="74"/>
-    <col min="5382" max="5382" width="9.5" style="74" customWidth="1"/>
-    <col min="5383" max="5634" width="9" style="74"/>
-    <col min="5635" max="5635" width="10.75" style="74" customWidth="1"/>
-    <col min="5636" max="5637" width="9" style="74"/>
-    <col min="5638" max="5638" width="9.5" style="74" customWidth="1"/>
-    <col min="5639" max="5890" width="9" style="74"/>
-    <col min="5891" max="5891" width="10.75" style="74" customWidth="1"/>
-    <col min="5892" max="5893" width="9" style="74"/>
-    <col min="5894" max="5894" width="9.5" style="74" customWidth="1"/>
-    <col min="5895" max="6146" width="9" style="74"/>
-    <col min="6147" max="6147" width="10.75" style="74" customWidth="1"/>
-    <col min="6148" max="6149" width="9" style="74"/>
-    <col min="6150" max="6150" width="9.5" style="74" customWidth="1"/>
-    <col min="6151" max="6402" width="9" style="74"/>
-    <col min="6403" max="6403" width="10.75" style="74" customWidth="1"/>
-    <col min="6404" max="6405" width="9" style="74"/>
-    <col min="6406" max="6406" width="9.5" style="74" customWidth="1"/>
-    <col min="6407" max="6658" width="9" style="74"/>
-    <col min="6659" max="6659" width="10.75" style="74" customWidth="1"/>
-    <col min="6660" max="6661" width="9" style="74"/>
-    <col min="6662" max="6662" width="9.5" style="74" customWidth="1"/>
-    <col min="6663" max="6914" width="9" style="74"/>
-    <col min="6915" max="6915" width="10.75" style="74" customWidth="1"/>
-    <col min="6916" max="6917" width="9" style="74"/>
-    <col min="6918" max="6918" width="9.5" style="74" customWidth="1"/>
-    <col min="6919" max="7170" width="9" style="74"/>
-    <col min="7171" max="7171" width="10.75" style="74" customWidth="1"/>
-    <col min="7172" max="7173" width="9" style="74"/>
-    <col min="7174" max="7174" width="9.5" style="74" customWidth="1"/>
-    <col min="7175" max="7426" width="9" style="74"/>
-    <col min="7427" max="7427" width="10.75" style="74" customWidth="1"/>
-    <col min="7428" max="7429" width="9" style="74"/>
-    <col min="7430" max="7430" width="9.5" style="74" customWidth="1"/>
-    <col min="7431" max="7682" width="9" style="74"/>
-    <col min="7683" max="7683" width="10.75" style="74" customWidth="1"/>
-    <col min="7684" max="7685" width="9" style="74"/>
-    <col min="7686" max="7686" width="9.5" style="74" customWidth="1"/>
-    <col min="7687" max="7938" width="9" style="74"/>
-    <col min="7939" max="7939" width="10.75" style="74" customWidth="1"/>
-    <col min="7940" max="7941" width="9" style="74"/>
-    <col min="7942" max="7942" width="9.5" style="74" customWidth="1"/>
-    <col min="7943" max="8194" width="9" style="74"/>
-    <col min="8195" max="8195" width="10.75" style="74" customWidth="1"/>
-    <col min="8196" max="8197" width="9" style="74"/>
-    <col min="8198" max="8198" width="9.5" style="74" customWidth="1"/>
-    <col min="8199" max="8450" width="9" style="74"/>
-    <col min="8451" max="8451" width="10.75" style="74" customWidth="1"/>
-    <col min="8452" max="8453" width="9" style="74"/>
-    <col min="8454" max="8454" width="9.5" style="74" customWidth="1"/>
-    <col min="8455" max="8706" width="9" style="74"/>
-    <col min="8707" max="8707" width="10.75" style="74" customWidth="1"/>
-    <col min="8708" max="8709" width="9" style="74"/>
-    <col min="8710" max="8710" width="9.5" style="74" customWidth="1"/>
-    <col min="8711" max="8962" width="9" style="74"/>
-    <col min="8963" max="8963" width="10.75" style="74" customWidth="1"/>
-    <col min="8964" max="8965" width="9" style="74"/>
-    <col min="8966" max="8966" width="9.5" style="74" customWidth="1"/>
-    <col min="8967" max="9218" width="9" style="74"/>
-    <col min="9219" max="9219" width="10.75" style="74" customWidth="1"/>
-    <col min="9220" max="9221" width="9" style="74"/>
-    <col min="9222" max="9222" width="9.5" style="74" customWidth="1"/>
-    <col min="9223" max="9474" width="9" style="74"/>
-    <col min="9475" max="9475" width="10.75" style="74" customWidth="1"/>
-    <col min="9476" max="9477" width="9" style="74"/>
-    <col min="9478" max="9478" width="9.5" style="74" customWidth="1"/>
-    <col min="9479" max="9730" width="9" style="74"/>
-    <col min="9731" max="9731" width="10.75" style="74" customWidth="1"/>
-    <col min="9732" max="9733" width="9" style="74"/>
-    <col min="9734" max="9734" width="9.5" style="74" customWidth="1"/>
-    <col min="9735" max="9986" width="9" style="74"/>
-    <col min="9987" max="9987" width="10.75" style="74" customWidth="1"/>
-    <col min="9988" max="9989" width="9" style="74"/>
-    <col min="9990" max="9990" width="9.5" style="74" customWidth="1"/>
-    <col min="9991" max="10242" width="9" style="74"/>
-    <col min="10243" max="10243" width="10.75" style="74" customWidth="1"/>
-    <col min="10244" max="10245" width="9" style="74"/>
-    <col min="10246" max="10246" width="9.5" style="74" customWidth="1"/>
-    <col min="10247" max="10498" width="9" style="74"/>
-    <col min="10499" max="10499" width="10.75" style="74" customWidth="1"/>
-    <col min="10500" max="10501" width="9" style="74"/>
-    <col min="10502" max="10502" width="9.5" style="74" customWidth="1"/>
-    <col min="10503" max="10754" width="9" style="74"/>
-    <col min="10755" max="10755" width="10.75" style="74" customWidth="1"/>
-    <col min="10756" max="10757" width="9" style="74"/>
-    <col min="10758" max="10758" width="9.5" style="74" customWidth="1"/>
-    <col min="10759" max="11010" width="9" style="74"/>
-    <col min="11011" max="11011" width="10.75" style="74" customWidth="1"/>
-    <col min="11012" max="11013" width="9" style="74"/>
-    <col min="11014" max="11014" width="9.5" style="74" customWidth="1"/>
-    <col min="11015" max="11266" width="9" style="74"/>
-    <col min="11267" max="11267" width="10.75" style="74" customWidth="1"/>
-    <col min="11268" max="11269" width="9" style="74"/>
-    <col min="11270" max="11270" width="9.5" style="74" customWidth="1"/>
-    <col min="11271" max="11522" width="9" style="74"/>
-    <col min="11523" max="11523" width="10.75" style="74" customWidth="1"/>
-    <col min="11524" max="11525" width="9" style="74"/>
-    <col min="11526" max="11526" width="9.5" style="74" customWidth="1"/>
-    <col min="11527" max="11778" width="9" style="74"/>
-    <col min="11779" max="11779" width="10.75" style="74" customWidth="1"/>
-    <col min="11780" max="11781" width="9" style="74"/>
-    <col min="11782" max="11782" width="9.5" style="74" customWidth="1"/>
-    <col min="11783" max="12034" width="9" style="74"/>
-    <col min="12035" max="12035" width="10.75" style="74" customWidth="1"/>
-    <col min="12036" max="12037" width="9" style="74"/>
-    <col min="12038" max="12038" width="9.5" style="74" customWidth="1"/>
-    <col min="12039" max="12290" width="9" style="74"/>
-    <col min="12291" max="12291" width="10.75" style="74" customWidth="1"/>
-    <col min="12292" max="12293" width="9" style="74"/>
-    <col min="12294" max="12294" width="9.5" style="74" customWidth="1"/>
-    <col min="12295" max="12546" width="9" style="74"/>
-    <col min="12547" max="12547" width="10.75" style="74" customWidth="1"/>
-    <col min="12548" max="12549" width="9" style="74"/>
-    <col min="12550" max="12550" width="9.5" style="74" customWidth="1"/>
-    <col min="12551" max="12802" width="9" style="74"/>
-    <col min="12803" max="12803" width="10.75" style="74" customWidth="1"/>
-    <col min="12804" max="12805" width="9" style="74"/>
-    <col min="12806" max="12806" width="9.5" style="74" customWidth="1"/>
-    <col min="12807" max="13058" width="9" style="74"/>
-    <col min="13059" max="13059" width="10.75" style="74" customWidth="1"/>
-    <col min="13060" max="13061" width="9" style="74"/>
-    <col min="13062" max="13062" width="9.5" style="74" customWidth="1"/>
-    <col min="13063" max="13314" width="9" style="74"/>
-    <col min="13315" max="13315" width="10.75" style="74" customWidth="1"/>
-    <col min="13316" max="13317" width="9" style="74"/>
-    <col min="13318" max="13318" width="9.5" style="74" customWidth="1"/>
-    <col min="13319" max="13570" width="9" style="74"/>
-    <col min="13571" max="13571" width="10.75" style="74" customWidth="1"/>
-    <col min="13572" max="13573" width="9" style="74"/>
-    <col min="13574" max="13574" width="9.5" style="74" customWidth="1"/>
-    <col min="13575" max="13826" width="9" style="74"/>
-    <col min="13827" max="13827" width="10.75" style="74" customWidth="1"/>
-    <col min="13828" max="13829" width="9" style="74"/>
-    <col min="13830" max="13830" width="9.5" style="74" customWidth="1"/>
-    <col min="13831" max="14082" width="9" style="74"/>
-    <col min="14083" max="14083" width="10.75" style="74" customWidth="1"/>
-    <col min="14084" max="14085" width="9" style="74"/>
-    <col min="14086" max="14086" width="9.5" style="74" customWidth="1"/>
-    <col min="14087" max="14338" width="9" style="74"/>
-    <col min="14339" max="14339" width="10.75" style="74" customWidth="1"/>
-    <col min="14340" max="14341" width="9" style="74"/>
-    <col min="14342" max="14342" width="9.5" style="74" customWidth="1"/>
-    <col min="14343" max="14594" width="9" style="74"/>
-    <col min="14595" max="14595" width="10.75" style="74" customWidth="1"/>
-    <col min="14596" max="14597" width="9" style="74"/>
-    <col min="14598" max="14598" width="9.5" style="74" customWidth="1"/>
-    <col min="14599" max="14850" width="9" style="74"/>
-    <col min="14851" max="14851" width="10.75" style="74" customWidth="1"/>
-    <col min="14852" max="14853" width="9" style="74"/>
-    <col min="14854" max="14854" width="9.5" style="74" customWidth="1"/>
-    <col min="14855" max="15106" width="9" style="74"/>
-    <col min="15107" max="15107" width="10.75" style="74" customWidth="1"/>
-    <col min="15108" max="15109" width="9" style="74"/>
-    <col min="15110" max="15110" width="9.5" style="74" customWidth="1"/>
-    <col min="15111" max="15362" width="9" style="74"/>
-    <col min="15363" max="15363" width="10.75" style="74" customWidth="1"/>
-    <col min="15364" max="15365" width="9" style="74"/>
-    <col min="15366" max="15366" width="9.5" style="74" customWidth="1"/>
-    <col min="15367" max="15618" width="9" style="74"/>
-    <col min="15619" max="15619" width="10.75" style="74" customWidth="1"/>
-    <col min="15620" max="15621" width="9" style="74"/>
-    <col min="15622" max="15622" width="9.5" style="74" customWidth="1"/>
-    <col min="15623" max="15874" width="9" style="74"/>
-    <col min="15875" max="15875" width="10.75" style="74" customWidth="1"/>
-    <col min="15876" max="15877" width="9" style="74"/>
-    <col min="15878" max="15878" width="9.5" style="74" customWidth="1"/>
-    <col min="15879" max="16130" width="9" style="74"/>
-    <col min="16131" max="16131" width="10.75" style="74" customWidth="1"/>
-    <col min="16132" max="16133" width="9" style="74"/>
-    <col min="16134" max="16134" width="9.5" style="74" customWidth="1"/>
-    <col min="16135" max="16384" width="9" style="74"/>
+    <col min="1" max="2" width="9" style="73"/>
+    <col min="3" max="3" width="11.625" style="73" customWidth="1"/>
+    <col min="4" max="5" width="9" style="73"/>
+    <col min="6" max="6" width="9.5" style="73" customWidth="1"/>
+    <col min="7" max="258" width="9" style="73"/>
+    <col min="259" max="259" width="10.75" style="73" customWidth="1"/>
+    <col min="260" max="261" width="9" style="73"/>
+    <col min="262" max="262" width="9.5" style="73" customWidth="1"/>
+    <col min="263" max="514" width="9" style="73"/>
+    <col min="515" max="515" width="10.75" style="73" customWidth="1"/>
+    <col min="516" max="517" width="9" style="73"/>
+    <col min="518" max="518" width="9.5" style="73" customWidth="1"/>
+    <col min="519" max="770" width="9" style="73"/>
+    <col min="771" max="771" width="10.75" style="73" customWidth="1"/>
+    <col min="772" max="773" width="9" style="73"/>
+    <col min="774" max="774" width="9.5" style="73" customWidth="1"/>
+    <col min="775" max="1026" width="9" style="73"/>
+    <col min="1027" max="1027" width="10.75" style="73" customWidth="1"/>
+    <col min="1028" max="1029" width="9" style="73"/>
+    <col min="1030" max="1030" width="9.5" style="73" customWidth="1"/>
+    <col min="1031" max="1282" width="9" style="73"/>
+    <col min="1283" max="1283" width="10.75" style="73" customWidth="1"/>
+    <col min="1284" max="1285" width="9" style="73"/>
+    <col min="1286" max="1286" width="9.5" style="73" customWidth="1"/>
+    <col min="1287" max="1538" width="9" style="73"/>
+    <col min="1539" max="1539" width="10.75" style="73" customWidth="1"/>
+    <col min="1540" max="1541" width="9" style="73"/>
+    <col min="1542" max="1542" width="9.5" style="73" customWidth="1"/>
+    <col min="1543" max="1794" width="9" style="73"/>
+    <col min="1795" max="1795" width="10.75" style="73" customWidth="1"/>
+    <col min="1796" max="1797" width="9" style="73"/>
+    <col min="1798" max="1798" width="9.5" style="73" customWidth="1"/>
+    <col min="1799" max="2050" width="9" style="73"/>
+    <col min="2051" max="2051" width="10.75" style="73" customWidth="1"/>
+    <col min="2052" max="2053" width="9" style="73"/>
+    <col min="2054" max="2054" width="9.5" style="73" customWidth="1"/>
+    <col min="2055" max="2306" width="9" style="73"/>
+    <col min="2307" max="2307" width="10.75" style="73" customWidth="1"/>
+    <col min="2308" max="2309" width="9" style="73"/>
+    <col min="2310" max="2310" width="9.5" style="73" customWidth="1"/>
+    <col min="2311" max="2562" width="9" style="73"/>
+    <col min="2563" max="2563" width="10.75" style="73" customWidth="1"/>
+    <col min="2564" max="2565" width="9" style="73"/>
+    <col min="2566" max="2566" width="9.5" style="73" customWidth="1"/>
+    <col min="2567" max="2818" width="9" style="73"/>
+    <col min="2819" max="2819" width="10.75" style="73" customWidth="1"/>
+    <col min="2820" max="2821" width="9" style="73"/>
+    <col min="2822" max="2822" width="9.5" style="73" customWidth="1"/>
+    <col min="2823" max="3074" width="9" style="73"/>
+    <col min="3075" max="3075" width="10.75" style="73" customWidth="1"/>
+    <col min="3076" max="3077" width="9" style="73"/>
+    <col min="3078" max="3078" width="9.5" style="73" customWidth="1"/>
+    <col min="3079" max="3330" width="9" style="73"/>
+    <col min="3331" max="3331" width="10.75" style="73" customWidth="1"/>
+    <col min="3332" max="3333" width="9" style="73"/>
+    <col min="3334" max="3334" width="9.5" style="73" customWidth="1"/>
+    <col min="3335" max="3586" width="9" style="73"/>
+    <col min="3587" max="3587" width="10.75" style="73" customWidth="1"/>
+    <col min="3588" max="3589" width="9" style="73"/>
+    <col min="3590" max="3590" width="9.5" style="73" customWidth="1"/>
+    <col min="3591" max="3842" width="9" style="73"/>
+    <col min="3843" max="3843" width="10.75" style="73" customWidth="1"/>
+    <col min="3844" max="3845" width="9" style="73"/>
+    <col min="3846" max="3846" width="9.5" style="73" customWidth="1"/>
+    <col min="3847" max="4098" width="9" style="73"/>
+    <col min="4099" max="4099" width="10.75" style="73" customWidth="1"/>
+    <col min="4100" max="4101" width="9" style="73"/>
+    <col min="4102" max="4102" width="9.5" style="73" customWidth="1"/>
+    <col min="4103" max="4354" width="9" style="73"/>
+    <col min="4355" max="4355" width="10.75" style="73" customWidth="1"/>
+    <col min="4356" max="4357" width="9" style="73"/>
+    <col min="4358" max="4358" width="9.5" style="73" customWidth="1"/>
+    <col min="4359" max="4610" width="9" style="73"/>
+    <col min="4611" max="4611" width="10.75" style="73" customWidth="1"/>
+    <col min="4612" max="4613" width="9" style="73"/>
+    <col min="4614" max="4614" width="9.5" style="73" customWidth="1"/>
+    <col min="4615" max="4866" width="9" style="73"/>
+    <col min="4867" max="4867" width="10.75" style="73" customWidth="1"/>
+    <col min="4868" max="4869" width="9" style="73"/>
+    <col min="4870" max="4870" width="9.5" style="73" customWidth="1"/>
+    <col min="4871" max="5122" width="9" style="73"/>
+    <col min="5123" max="5123" width="10.75" style="73" customWidth="1"/>
+    <col min="5124" max="5125" width="9" style="73"/>
+    <col min="5126" max="5126" width="9.5" style="73" customWidth="1"/>
+    <col min="5127" max="5378" width="9" style="73"/>
+    <col min="5379" max="5379" width="10.75" style="73" customWidth="1"/>
+    <col min="5380" max="5381" width="9" style="73"/>
+    <col min="5382" max="5382" width="9.5" style="73" customWidth="1"/>
+    <col min="5383" max="5634" width="9" style="73"/>
+    <col min="5635" max="5635" width="10.75" style="73" customWidth="1"/>
+    <col min="5636" max="5637" width="9" style="73"/>
+    <col min="5638" max="5638" width="9.5" style="73" customWidth="1"/>
+    <col min="5639" max="5890" width="9" style="73"/>
+    <col min="5891" max="5891" width="10.75" style="73" customWidth="1"/>
+    <col min="5892" max="5893" width="9" style="73"/>
+    <col min="5894" max="5894" width="9.5" style="73" customWidth="1"/>
+    <col min="5895" max="6146" width="9" style="73"/>
+    <col min="6147" max="6147" width="10.75" style="73" customWidth="1"/>
+    <col min="6148" max="6149" width="9" style="73"/>
+    <col min="6150" max="6150" width="9.5" style="73" customWidth="1"/>
+    <col min="6151" max="6402" width="9" style="73"/>
+    <col min="6403" max="6403" width="10.75" style="73" customWidth="1"/>
+    <col min="6404" max="6405" width="9" style="73"/>
+    <col min="6406" max="6406" width="9.5" style="73" customWidth="1"/>
+    <col min="6407" max="6658" width="9" style="73"/>
+    <col min="6659" max="6659" width="10.75" style="73" customWidth="1"/>
+    <col min="6660" max="6661" width="9" style="73"/>
+    <col min="6662" max="6662" width="9.5" style="73" customWidth="1"/>
+    <col min="6663" max="6914" width="9" style="73"/>
+    <col min="6915" max="6915" width="10.75" style="73" customWidth="1"/>
+    <col min="6916" max="6917" width="9" style="73"/>
+    <col min="6918" max="6918" width="9.5" style="73" customWidth="1"/>
+    <col min="6919" max="7170" width="9" style="73"/>
+    <col min="7171" max="7171" width="10.75" style="73" customWidth="1"/>
+    <col min="7172" max="7173" width="9" style="73"/>
+    <col min="7174" max="7174" width="9.5" style="73" customWidth="1"/>
+    <col min="7175" max="7426" width="9" style="73"/>
+    <col min="7427" max="7427" width="10.75" style="73" customWidth="1"/>
+    <col min="7428" max="7429" width="9" style="73"/>
+    <col min="7430" max="7430" width="9.5" style="73" customWidth="1"/>
+    <col min="7431" max="7682" width="9" style="73"/>
+    <col min="7683" max="7683" width="10.75" style="73" customWidth="1"/>
+    <col min="7684" max="7685" width="9" style="73"/>
+    <col min="7686" max="7686" width="9.5" style="73" customWidth="1"/>
+    <col min="7687" max="7938" width="9" style="73"/>
+    <col min="7939" max="7939" width="10.75" style="73" customWidth="1"/>
+    <col min="7940" max="7941" width="9" style="73"/>
+    <col min="7942" max="7942" width="9.5" style="73" customWidth="1"/>
+    <col min="7943" max="8194" width="9" style="73"/>
+    <col min="8195" max="8195" width="10.75" style="73" customWidth="1"/>
+    <col min="8196" max="8197" width="9" style="73"/>
+    <col min="8198" max="8198" width="9.5" style="73" customWidth="1"/>
+    <col min="8199" max="8450" width="9" style="73"/>
+    <col min="8451" max="8451" width="10.75" style="73" customWidth="1"/>
+    <col min="8452" max="8453" width="9" style="73"/>
+    <col min="8454" max="8454" width="9.5" style="73" customWidth="1"/>
+    <col min="8455" max="8706" width="9" style="73"/>
+    <col min="8707" max="8707" width="10.75" style="73" customWidth="1"/>
+    <col min="8708" max="8709" width="9" style="73"/>
+    <col min="8710" max="8710" width="9.5" style="73" customWidth="1"/>
+    <col min="8711" max="8962" width="9" style="73"/>
+    <col min="8963" max="8963" width="10.75" style="73" customWidth="1"/>
+    <col min="8964" max="8965" width="9" style="73"/>
+    <col min="8966" max="8966" width="9.5" style="73" customWidth="1"/>
+    <col min="8967" max="9218" width="9" style="73"/>
+    <col min="9219" max="9219" width="10.75" style="73" customWidth="1"/>
+    <col min="9220" max="9221" width="9" style="73"/>
+    <col min="9222" max="9222" width="9.5" style="73" customWidth="1"/>
+    <col min="9223" max="9474" width="9" style="73"/>
+    <col min="9475" max="9475" width="10.75" style="73" customWidth="1"/>
+    <col min="9476" max="9477" width="9" style="73"/>
+    <col min="9478" max="9478" width="9.5" style="73" customWidth="1"/>
+    <col min="9479" max="9730" width="9" style="73"/>
+    <col min="9731" max="9731" width="10.75" style="73" customWidth="1"/>
+    <col min="9732" max="9733" width="9" style="73"/>
+    <col min="9734" max="9734" width="9.5" style="73" customWidth="1"/>
+    <col min="9735" max="9986" width="9" style="73"/>
+    <col min="9987" max="9987" width="10.75" style="73" customWidth="1"/>
+    <col min="9988" max="9989" width="9" style="73"/>
+    <col min="9990" max="9990" width="9.5" style="73" customWidth="1"/>
+    <col min="9991" max="10242" width="9" style="73"/>
+    <col min="10243" max="10243" width="10.75" style="73" customWidth="1"/>
+    <col min="10244" max="10245" width="9" style="73"/>
+    <col min="10246" max="10246" width="9.5" style="73" customWidth="1"/>
+    <col min="10247" max="10498" width="9" style="73"/>
+    <col min="10499" max="10499" width="10.75" style="73" customWidth="1"/>
+    <col min="10500" max="10501" width="9" style="73"/>
+    <col min="10502" max="10502" width="9.5" style="73" customWidth="1"/>
+    <col min="10503" max="10754" width="9" style="73"/>
+    <col min="10755" max="10755" width="10.75" style="73" customWidth="1"/>
+    <col min="10756" max="10757" width="9" style="73"/>
+    <col min="10758" max="10758" width="9.5" style="73" customWidth="1"/>
+    <col min="10759" max="11010" width="9" style="73"/>
+    <col min="11011" max="11011" width="10.75" style="73" customWidth="1"/>
+    <col min="11012" max="11013" width="9" style="73"/>
+    <col min="11014" max="11014" width="9.5" style="73" customWidth="1"/>
+    <col min="11015" max="11266" width="9" style="73"/>
+    <col min="11267" max="11267" width="10.75" style="73" customWidth="1"/>
+    <col min="11268" max="11269" width="9" style="73"/>
+    <col min="11270" max="11270" width="9.5" style="73" customWidth="1"/>
+    <col min="11271" max="11522" width="9" style="73"/>
+    <col min="11523" max="11523" width="10.75" style="73" customWidth="1"/>
+    <col min="11524" max="11525" width="9" style="73"/>
+    <col min="11526" max="11526" width="9.5" style="73" customWidth="1"/>
+    <col min="11527" max="11778" width="9" style="73"/>
+    <col min="11779" max="11779" width="10.75" style="73" customWidth="1"/>
+    <col min="11780" max="11781" width="9" style="73"/>
+    <col min="11782" max="11782" width="9.5" style="73" customWidth="1"/>
+    <col min="11783" max="12034" width="9" style="73"/>
+    <col min="12035" max="12035" width="10.75" style="73" customWidth="1"/>
+    <col min="12036" max="12037" width="9" style="73"/>
+    <col min="12038" max="12038" width="9.5" style="73" customWidth="1"/>
+    <col min="12039" max="12290" width="9" style="73"/>
+    <col min="12291" max="12291" width="10.75" style="73" customWidth="1"/>
+    <col min="12292" max="12293" width="9" style="73"/>
+    <col min="12294" max="12294" width="9.5" style="73" customWidth="1"/>
+    <col min="12295" max="12546" width="9" style="73"/>
+    <col min="12547" max="12547" width="10.75" style="73" customWidth="1"/>
+    <col min="12548" max="12549" width="9" style="73"/>
+    <col min="12550" max="12550" width="9.5" style="73" customWidth="1"/>
+    <col min="12551" max="12802" width="9" style="73"/>
+    <col min="12803" max="12803" width="10.75" style="73" customWidth="1"/>
+    <col min="12804" max="12805" width="9" style="73"/>
+    <col min="12806" max="12806" width="9.5" style="73" customWidth="1"/>
+    <col min="12807" max="13058" width="9" style="73"/>
+    <col min="13059" max="13059" width="10.75" style="73" customWidth="1"/>
+    <col min="13060" max="13061" width="9" style="73"/>
+    <col min="13062" max="13062" width="9.5" style="73" customWidth="1"/>
+    <col min="13063" max="13314" width="9" style="73"/>
+    <col min="13315" max="13315" width="10.75" style="73" customWidth="1"/>
+    <col min="13316" max="13317" width="9" style="73"/>
+    <col min="13318" max="13318" width="9.5" style="73" customWidth="1"/>
+    <col min="13319" max="13570" width="9" style="73"/>
+    <col min="13571" max="13571" width="10.75" style="73" customWidth="1"/>
+    <col min="13572" max="13573" width="9" style="73"/>
+    <col min="13574" max="13574" width="9.5" style="73" customWidth="1"/>
+    <col min="13575" max="13826" width="9" style="73"/>
+    <col min="13827" max="13827" width="10.75" style="73" customWidth="1"/>
+    <col min="13828" max="13829" width="9" style="73"/>
+    <col min="13830" max="13830" width="9.5" style="73" customWidth="1"/>
+    <col min="13831" max="14082" width="9" style="73"/>
+    <col min="14083" max="14083" width="10.75" style="73" customWidth="1"/>
+    <col min="14084" max="14085" width="9" style="73"/>
+    <col min="14086" max="14086" width="9.5" style="73" customWidth="1"/>
+    <col min="14087" max="14338" width="9" style="73"/>
+    <col min="14339" max="14339" width="10.75" style="73" customWidth="1"/>
+    <col min="14340" max="14341" width="9" style="73"/>
+    <col min="14342" max="14342" width="9.5" style="73" customWidth="1"/>
+    <col min="14343" max="14594" width="9" style="73"/>
+    <col min="14595" max="14595" width="10.75" style="73" customWidth="1"/>
+    <col min="14596" max="14597" width="9" style="73"/>
+    <col min="14598" max="14598" width="9.5" style="73" customWidth="1"/>
+    <col min="14599" max="14850" width="9" style="73"/>
+    <col min="14851" max="14851" width="10.75" style="73" customWidth="1"/>
+    <col min="14852" max="14853" width="9" style="73"/>
+    <col min="14854" max="14854" width="9.5" style="73" customWidth="1"/>
+    <col min="14855" max="15106" width="9" style="73"/>
+    <col min="15107" max="15107" width="10.75" style="73" customWidth="1"/>
+    <col min="15108" max="15109" width="9" style="73"/>
+    <col min="15110" max="15110" width="9.5" style="73" customWidth="1"/>
+    <col min="15111" max="15362" width="9" style="73"/>
+    <col min="15363" max="15363" width="10.75" style="73" customWidth="1"/>
+    <col min="15364" max="15365" width="9" style="73"/>
+    <col min="15366" max="15366" width="9.5" style="73" customWidth="1"/>
+    <col min="15367" max="15618" width="9" style="73"/>
+    <col min="15619" max="15619" width="10.75" style="73" customWidth="1"/>
+    <col min="15620" max="15621" width="9" style="73"/>
+    <col min="15622" max="15622" width="9.5" style="73" customWidth="1"/>
+    <col min="15623" max="15874" width="9" style="73"/>
+    <col min="15875" max="15875" width="10.75" style="73" customWidth="1"/>
+    <col min="15876" max="15877" width="9" style="73"/>
+    <col min="15878" max="15878" width="9.5" style="73" customWidth="1"/>
+    <col min="15879" max="16130" width="9" style="73"/>
+    <col min="16131" max="16131" width="10.75" style="73" customWidth="1"/>
+    <col min="16132" max="16133" width="9" style="73"/>
+    <col min="16134" max="16134" width="9.5" style="73" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="51" customFormat="1" ht="21">
-      <c r="A1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" s="52" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:9" s="51" customFormat="1" ht="28.5">
-      <c r="A3" s="55" t="s">
+    <row r="1" spans="1:9" s="50" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" s="51" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="51" customFormat="1" ht="28.5">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-    </row>
-    <row r="5" spans="1:9" s="51" customFormat="1" ht="28.5">
-      <c r="A5" s="57" t="s">
+    <row r="4" spans="1:9" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="51" customFormat="1" ht="28.5">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="1:9" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="59"/>
-    </row>
-    <row r="7" spans="1:9" s="51" customFormat="1" ht="28.5">
-      <c r="A7" s="57"/>
-      <c r="B7" s="59" t="s">
+      <c r="C6" s="58"/>
+    </row>
+    <row r="7" spans="1:9" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="56"/>
+      <c r="B7" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="59"/>
-    </row>
-    <row r="8" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A8" s="60"/>
-    </row>
-    <row r="9" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A9" s="60"/>
-    </row>
-    <row r="10" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A10" s="60"/>
-    </row>
-    <row r="11" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A11" s="60"/>
-    </row>
-    <row r="12" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A12" s="60"/>
-    </row>
-    <row r="13" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A13" s="60"/>
-    </row>
-    <row r="14" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A14" s="60"/>
-    </row>
-    <row r="15" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A15" s="60"/>
-      <c r="C15" s="51" t="s">
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="59"/>
+    </row>
+    <row r="9" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="59"/>
+    </row>
+    <row r="10" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="59"/>
+    </row>
+    <row r="12" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="59"/>
+    </row>
+    <row r="13" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="59"/>
+    </row>
+    <row r="14" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="59"/>
+    </row>
+    <row r="15" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="59"/>
+      <c r="C15" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="77"/>
-    </row>
-    <row r="16" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A16" s="60"/>
-      <c r="C16" s="51" t="s">
+      <c r="E15" s="79"/>
+    </row>
+    <row r="16" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="59"/>
+      <c r="C16" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="80">
         <v>44762</v>
       </c>
-      <c r="E16" s="77"/>
-    </row>
-    <row r="17" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A17" s="61"/>
-      <c r="C17" s="51" t="s">
+      <c r="E16" s="79"/>
+    </row>
+    <row r="17" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="60"/>
+      <c r="C17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="78">
-        <v>45036</v>
-      </c>
-      <c r="E17" s="77"/>
-    </row>
-    <row r="18" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A18" s="60"/>
-      <c r="C18" s="51" t="s">
+      <c r="D17" s="80">
+        <v>45198</v>
+      </c>
+      <c r="E17" s="79"/>
+    </row>
+    <row r="18" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="59"/>
+      <c r="C18" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="62"/>
-    </row>
-    <row r="19" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A19" s="60"/>
-      <c r="C19" s="51" t="s">
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="59"/>
+      <c r="C19" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="80"/>
-    </row>
-    <row r="20" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A20" s="63"/>
-    </row>
-    <row r="21" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A21" s="64"/>
-    </row>
-    <row r="22" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A22" s="64"/>
-    </row>
-    <row r="23" spans="1:5" s="51" customFormat="1" ht="12"/>
-    <row r="24" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="C24" s="51" t="s">
+      <c r="D19" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="82"/>
+    </row>
+    <row r="20" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="63"/>
+    </row>
+    <row r="22" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A22" s="63"/>
+    </row>
+    <row r="23" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C24" s="50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="C25" s="51" t="s">
+    <row r="25" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C25" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-    </row>
-    <row r="26" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="C26" s="51" t="s">
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+    </row>
+    <row r="26" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="C26" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-    </row>
-    <row r="27" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A27" s="63"/>
-    </row>
-    <row r="28" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A28" s="63"/>
-    </row>
-    <row r="29" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A29" s="63"/>
-    </row>
-    <row r="30" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A30" s="63"/>
-    </row>
-    <row r="31" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A31" s="63"/>
-    </row>
-    <row r="32" spans="1:5" s="51" customFormat="1" ht="12">
-      <c r="A32" s="63"/>
-    </row>
-    <row r="33" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A33" s="64"/>
-    </row>
-    <row r="34" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A34" s="64"/>
-    </row>
-    <row r="35" spans="1:9" s="70" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="65" t="s">
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+    </row>
+    <row r="27" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="62"/>
+    </row>
+    <row r="28" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A28" s="62"/>
+    </row>
+    <row r="29" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A29" s="62"/>
+    </row>
+    <row r="30" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" s="62"/>
+    </row>
+    <row r="31" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="62"/>
+    </row>
+    <row r="32" spans="1:5" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" s="62"/>
+    </row>
+    <row r="33" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" s="63"/>
+    </row>
+    <row r="34" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="63"/>
+    </row>
+    <row r="35" spans="1:9" s="69" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-    </row>
-    <row r="36" spans="1:9" ht="12" customHeight="1">
-      <c r="A36" s="71" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+    </row>
+    <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-    </row>
-    <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A37" s="63"/>
-    </row>
-    <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A38" s="64"/>
-    </row>
-    <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A39" s="64"/>
-    </row>
-    <row r="40" spans="1:9" s="51" customFormat="1" ht="12"/>
-    <row r="41" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A41" s="63"/>
-    </row>
-    <row r="42" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A42" s="64"/>
-    </row>
-    <row r="43" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A43" s="64"/>
-    </row>
-    <row r="44" spans="1:9" s="51" customFormat="1" ht="12"/>
-    <row r="45" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A45" s="63"/>
-    </row>
-    <row r="46" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A46" s="64"/>
-    </row>
-    <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A47" s="64"/>
-    </row>
-    <row r="48" spans="1:9" s="51" customFormat="1" ht="12"/>
-    <row r="49" spans="1:1" s="51" customFormat="1" ht="12">
-      <c r="A49" s="63"/>
-    </row>
-    <row r="50" spans="1:1" s="51" customFormat="1" ht="12">
-      <c r="A50" s="64"/>
-    </row>
-    <row r="51" spans="1:1" s="51" customFormat="1" ht="12">
-      <c r="A51" s="64"/>
-    </row>
-    <row r="52" spans="1:1" s="51" customFormat="1" ht="12"/>
-    <row r="53" spans="1:1" s="51" customFormat="1" ht="12">
-      <c r="A53" s="63"/>
-    </row>
-    <row r="54" spans="1:1" s="51" customFormat="1" ht="12">
-      <c r="A54" s="64"/>
-    </row>
-    <row r="55" spans="1:1" s="51" customFormat="1" ht="12">
-      <c r="A55" s="64"/>
-    </row>
-    <row r="56" spans="1:1" s="51" customFormat="1" ht="12"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+    </row>
+    <row r="37" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="62"/>
+    </row>
+    <row r="38" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A38" s="63"/>
+    </row>
+    <row r="39" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39" s="63"/>
+    </row>
+    <row r="40" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42" s="63"/>
+    </row>
+    <row r="43" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A43" s="63"/>
+    </row>
+    <row r="44" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46" s="63"/>
+    </row>
+    <row r="47" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A47" s="63"/>
+    </row>
+    <row r="48" spans="1:9" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A49" s="62"/>
+    </row>
+    <row r="50" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A50" s="63"/>
+    </row>
+    <row r="51" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A51" s="63"/>
+    </row>
+    <row r="52" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A53" s="62"/>
+    </row>
+    <row r="54" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A54" s="63"/>
+    </row>
+    <row r="55" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A55" s="63"/>
+    </row>
+    <row r="56" spans="1:1" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D26:E26"/>
@@ -3823,7 +3868,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
@@ -4021,357 +4066,365 @@
     <col min="16142" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="12" thickBot="1"/>
-    <row r="2" spans="1:41" ht="12" thickBot="1">
-      <c r="A2" s="95" t="s">
+    <row r="1" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="95" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="95" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98" t="s">
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="99"/>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="A3" s="100">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="93"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="94">
         <v>44762</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103" t="s">
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="104" t="s">
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="106"/>
-    </row>
-    <row r="4" spans="1:41">
-      <c r="A4" s="87">
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="100"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="101">
         <v>44862</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="84" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="84" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="94" t="s">
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="93"/>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="87">
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="104"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="101">
         <v>44979</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="84" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="84" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="91" t="s">
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="93"/>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" s="87">
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="104"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A6" s="101">
         <v>45028</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="84" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="84" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="91" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="103"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="104"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="101">
+        <v>45036</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="92"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="93"/>
-    </row>
-    <row r="7" spans="1:41">
-      <c r="A7" s="87">
-        <v>45036</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="90"/>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="87"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="89"/>
-      <c r="AO8" s="90"/>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="108"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="101">
+        <v>45198</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="108"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -4381,10 +4434,10 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="34"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -4414,7 +4467,7 @@
       <c r="AN9" s="35"/>
       <c r="AO9" s="36"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -4424,10 +4477,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="34"/>
       <c r="O10" s="35"/>
       <c r="P10" s="35"/>
@@ -4457,7 +4510,7 @@
       <c r="AN10" s="35"/>
       <c r="AO10" s="36"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -4467,10 +4520,10 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="34"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
@@ -4500,7 +4553,7 @@
       <c r="AN11" s="35"/>
       <c r="AO11" s="36"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -4510,10 +4563,10 @@
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="34"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
@@ -4543,7 +4596,7 @@
       <c r="AN12" s="35"/>
       <c r="AO12" s="36"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -4553,10 +4606,10 @@
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="34"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
@@ -4586,7 +4639,7 @@
       <c r="AN13" s="35"/>
       <c r="AO13" s="36"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4596,10 +4649,10 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="34"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
@@ -4629,7 +4682,7 @@
       <c r="AN14" s="35"/>
       <c r="AO14" s="36"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -4639,10 +4692,10 @@
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="34"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
@@ -4672,7 +4725,7 @@
       <c r="AN15" s="35"/>
       <c r="AO15" s="36"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -4682,10 +4735,10 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="34"/>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
@@ -4715,20 +4768,20 @@
       <c r="AN16" s="35"/>
       <c r="AO16" s="36"/>
     </row>
-    <row r="17" spans="1:41">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="86"/>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
       <c r="N17" s="34"/>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
@@ -4758,20 +4811,20 @@
       <c r="AN17" s="35"/>
       <c r="AO17" s="36"/>
     </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A18" s="83"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
       <c r="N18" s="34"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
@@ -4801,20 +4854,20 @@
       <c r="AN18" s="35"/>
       <c r="AO18" s="36"/>
     </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
       <c r="N19" s="34"/>
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
@@ -4844,20 +4897,20 @@
       <c r="AN19" s="35"/>
       <c r="AO19" s="36"/>
     </row>
-    <row r="20" spans="1:41">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="86"/>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
       <c r="N20" s="34"/>
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
@@ -4887,20 +4940,20 @@
       <c r="AN20" s="35"/>
       <c r="AO20" s="36"/>
     </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
       <c r="N21" s="34"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
@@ -4930,20 +4983,20 @@
       <c r="AN21" s="35"/>
       <c r="AO21" s="36"/>
     </row>
-    <row r="22" spans="1:41">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
       <c r="N22" s="34"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
@@ -4973,20 +5026,20 @@
       <c r="AN22" s="35"/>
       <c r="AO22" s="36"/>
     </row>
-    <row r="23" spans="1:41">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="86"/>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
       <c r="N23" s="34"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
@@ -5016,20 +5069,20 @@
       <c r="AN23" s="35"/>
       <c r="AO23" s="36"/>
     </row>
-    <row r="24" spans="1:41">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="86"/>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="85"/>
       <c r="N24" s="34"/>
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
@@ -5059,20 +5112,20 @@
       <c r="AN24" s="35"/>
       <c r="AO24" s="36"/>
     </row>
-    <row r="25" spans="1:41">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="86"/>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
       <c r="N25" s="34"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
@@ -5102,20 +5155,20 @@
       <c r="AN25" s="35"/>
       <c r="AO25" s="36"/>
     </row>
-    <row r="26" spans="1:41">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="86"/>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="85"/>
       <c r="N26" s="34"/>
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
@@ -5145,20 +5198,20 @@
       <c r="AN26" s="35"/>
       <c r="AO26" s="36"/>
     </row>
-    <row r="27" spans="1:41">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="86"/>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
       <c r="N27" s="34"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
@@ -5188,20 +5241,20 @@
       <c r="AN27" s="35"/>
       <c r="AO27" s="36"/>
     </row>
-    <row r="28" spans="1:41">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="86"/>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
@@ -5231,20 +5284,20 @@
       <c r="AN28" s="35"/>
       <c r="AO28" s="36"/>
     </row>
-    <row r="29" spans="1:41">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="86"/>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="34"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
@@ -5274,20 +5327,20 @@
       <c r="AN29" s="35"/>
       <c r="AO29" s="36"/>
     </row>
-    <row r="30" spans="1:41">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="86"/>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
       <c r="N30" s="34"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
@@ -5317,20 +5370,20 @@
       <c r="AN30" s="35"/>
       <c r="AO30" s="36"/>
     </row>
-    <row r="31" spans="1:41">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="86"/>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="85"/>
       <c r="N31" s="34"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
@@ -5360,20 +5413,20 @@
       <c r="AN31" s="35"/>
       <c r="AO31" s="36"/>
     </row>
-    <row r="32" spans="1:41" ht="12" thickBot="1">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="83"/>
+    <row r="32" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="88"/>
       <c r="N32" s="37"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
@@ -5405,21 +5458,59 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="N8:AO8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="N6:AO6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="N7:AO7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="N5:AO5"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:AO2"/>
@@ -5428,59 +5519,21 @@
     <mergeCell ref="N3:AO3"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:AO4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="N5:AO5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="N6:AO6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="N7:AO7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="N8:AO8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -5492,13 +5545,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BD39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="29" customWidth="1"/>
     <col min="2" max="256" width="2.625" style="29"/>
@@ -5630,14 +5684,14 @@
     <col min="16130" max="16384" width="2.625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:56" s="3" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="2:56" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="2:56" s="5" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="3" spans="2:56" s="5" customFormat="1" ht="12.6" customHeight="1">
+    <row r="2" spans="2:56" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:56" s="5" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -5694,7 +5748,7 @@
       <c r="BC3" s="6"/>
       <c r="BD3" s="7"/>
     </row>
-    <row r="4" spans="2:56" ht="12.6" customHeight="1">
+    <row r="4" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -5754,7 +5808,7 @@
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
     </row>
-    <row r="5" spans="2:56" ht="12.6" customHeight="1">
+    <row r="5" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
@@ -5814,7 +5868,7 @@
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
     </row>
-    <row r="6" spans="2:56" ht="12.6" customHeight="1">
+    <row r="6" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
@@ -5874,7 +5928,7 @@
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
     </row>
-    <row r="7" spans="2:56" ht="12.6" customHeight="1">
+    <row r="7" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -5930,7 +5984,7 @@
       <c r="BB7" s="15"/>
       <c r="BC7" s="15"/>
     </row>
-    <row r="8" spans="2:56" ht="12.6" customHeight="1">
+    <row r="8" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -5986,7 +6040,7 @@
       <c r="BB8" s="15"/>
       <c r="BC8" s="15"/>
     </row>
-    <row r="9" spans="2:56" ht="12.6" customHeight="1">
+    <row r="9" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
@@ -6046,7 +6100,7 @@
       <c r="BB9" s="15"/>
       <c r="BC9" s="15"/>
     </row>
-    <row r="10" spans="2:56" ht="12.6" customHeight="1">
+    <row r="10" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="40" t="s">
         <v>28</v>
       </c>
@@ -6106,7 +6160,7 @@
       <c r="BB10" s="15"/>
       <c r="BC10" s="15"/>
     </row>
-    <row r="11" spans="2:56" ht="12.6" customHeight="1">
+    <row r="11" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="40" t="s">
         <v>25</v>
       </c>
@@ -6166,7 +6220,7 @@
       <c r="BB11" s="15"/>
       <c r="BC11" s="15"/>
     </row>
-    <row r="12" spans="2:56" ht="12.6" customHeight="1">
+    <row r="12" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="40" t="s">
         <v>26</v>
       </c>
@@ -6226,7 +6280,7 @@
       <c r="BB12" s="15"/>
       <c r="BC12" s="15"/>
     </row>
-    <row r="13" spans="2:56" ht="12.6" customHeight="1">
+    <row r="13" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
@@ -6286,7 +6340,7 @@
       <c r="BB13" s="15"/>
       <c r="BC13" s="15"/>
     </row>
-    <row r="14" spans="2:56" ht="12.6" customHeight="1">
+    <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -6342,7 +6396,7 @@
       <c r="BB14" s="15"/>
       <c r="BC14" s="15"/>
     </row>
-    <row r="15" spans="2:56" ht="12.6" customHeight="1">
+    <row r="15" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
@@ -6400,7 +6454,7 @@
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
     </row>
-    <row r="16" spans="2:56" ht="12.6" customHeight="1">
+    <row r="16" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
@@ -6455,7 +6509,7 @@
       <c r="BB16" s="23"/>
       <c r="BC16" s="23"/>
     </row>
-    <row r="17" spans="2:55" ht="12.6" customHeight="1">
+    <row r="17" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="24" t="s">
         <v>12</v>
       </c>
@@ -6510,7 +6564,7 @@
       <c r="BB17" s="28"/>
       <c r="BC17" s="28"/>
     </row>
-    <row r="18" spans="2:55" ht="12.6" customHeight="1">
+    <row r="18" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="24" t="s">
         <v>13</v>
       </c>
@@ -6565,7 +6619,7 @@
       <c r="BB18" s="28"/>
       <c r="BC18" s="28"/>
     </row>
-    <row r="19" spans="2:55" ht="12.6" customHeight="1">
+    <row r="19" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="24" t="s">
         <v>14</v>
       </c>
@@ -6620,7 +6674,7 @@
       <c r="BB19" s="28"/>
       <c r="BC19" s="28"/>
     </row>
-    <row r="20" spans="2:55" ht="11.25">
+    <row r="20" spans="2:55" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
         <v>46</v>
       </c>
@@ -6675,7 +6729,7 @@
       <c r="BB20" s="28"/>
       <c r="BC20" s="28"/>
     </row>
-    <row r="21" spans="2:55" ht="12.6" customHeight="1">
+    <row r="21" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="24" t="s">
         <v>48</v>
       </c>
@@ -6730,7 +6784,7 @@
       <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
     </row>
-    <row r="22" spans="2:55" ht="12.6" customHeight="1">
+    <row r="22" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="24" t="s">
         <v>15</v>
       </c>
@@ -6785,7 +6839,7 @@
       <c r="BB22" s="28"/>
       <c r="BC22" s="28"/>
     </row>
-    <row r="23" spans="2:55" ht="12.6" customHeight="1">
+    <row r="23" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="24" t="s">
         <v>35</v>
       </c>
@@ -6840,7 +6894,7 @@
       <c r="BB23" s="28"/>
       <c r="BC23" s="28"/>
     </row>
-    <row r="24" spans="2:55" ht="12.6" customHeight="1">
+    <row r="24" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="24" t="s">
         <v>36</v>
       </c>
@@ -6895,7 +6949,7 @@
       <c r="BB24" s="28"/>
       <c r="BC24" s="28"/>
     </row>
-    <row r="25" spans="2:55" ht="12.6" customHeight="1">
+    <row r="25" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="24" t="s">
         <v>38</v>
       </c>
@@ -6950,7 +7004,7 @@
       <c r="BB25" s="28"/>
       <c r="BC25" s="28"/>
     </row>
-    <row r="26" spans="2:55" ht="12.6" customHeight="1">
+    <row r="26" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
@@ -7005,7 +7059,7 @@
       <c r="BB26" s="28"/>
       <c r="BC26" s="28"/>
     </row>
-    <row r="27" spans="2:55" ht="12.6" customHeight="1">
+    <row r="27" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="24" t="s">
         <v>41</v>
       </c>
@@ -7060,7 +7114,7 @@
       <c r="BB27" s="28"/>
       <c r="BC27" s="28"/>
     </row>
-    <row r="28" spans="2:55" ht="12.6" customHeight="1">
+    <row r="28" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
         <v>43</v>
       </c>
@@ -7115,7 +7169,7 @@
       <c r="BB28" s="28"/>
       <c r="BC28" s="28"/>
     </row>
-    <row r="29" spans="2:55" ht="12.6" customHeight="1">
+    <row r="29" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="24" t="s">
         <v>77</v>
       </c>
@@ -7170,76 +7224,76 @@
       <c r="BB29" s="28"/>
       <c r="BC29" s="28"/>
     </row>
-    <row r="30" spans="2:55" ht="12.6" customHeight="1">
-      <c r="B30" s="43" t="s">
+    <row r="30" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="46"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="45"/>
       <c r="AY30" s="28"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="28"/>
       <c r="BB30" s="28"/>
       <c r="BC30" s="28"/>
     </row>
-    <row r="31" spans="2:55" ht="12.6" customHeight="1">
-      <c r="B31" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="24" t="s">
-        <v>22</v>
+    <row r="31" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="74" t="s">
+        <v>90</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
@@ -7280,8 +7334,10 @@
       <c r="BB31" s="28"/>
       <c r="BC31" s="28"/>
     </row>
-    <row r="32" spans="2:55" ht="12.6" customHeight="1">
-      <c r="B32" s="24"/>
+    <row r="32" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -7291,7 +7347,9 @@
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="24"/>
+      <c r="L32" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
@@ -7331,7 +7389,7 @@
       <c r="BB32" s="28"/>
       <c r="BC32" s="28"/>
     </row>
-    <row r="33" spans="2:55" ht="12.6" customHeight="1">
+    <row r="33" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -7382,7 +7440,7 @@
       <c r="BB33" s="28"/>
       <c r="BC33" s="28"/>
     </row>
-    <row r="34" spans="2:55" ht="12.6" customHeight="1">
+    <row r="34" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -7433,7 +7491,7 @@
       <c r="BB34" s="28"/>
       <c r="BC34" s="28"/>
     </row>
-    <row r="35" spans="2:55" ht="12.6" customHeight="1">
+    <row r="35" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -7484,7 +7542,7 @@
       <c r="BB35" s="28"/>
       <c r="BC35" s="28"/>
     </row>
-    <row r="36" spans="2:55" ht="12.6" customHeight="1">
+    <row r="36" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -7535,7 +7593,7 @@
       <c r="BB36" s="28"/>
       <c r="BC36" s="28"/>
     </row>
-    <row r="37" spans="2:55" ht="12.6" customHeight="1">
+    <row r="37" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -7586,7 +7644,7 @@
       <c r="BB37" s="28"/>
       <c r="BC37" s="28"/>
     </row>
-    <row r="38" spans="2:55" ht="12.6" customHeight="1">
+    <row r="38" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -7642,7 +7700,7 @@
       <c r="BB38" s="15"/>
       <c r="BC38" s="15"/>
     </row>
-    <row r="39" spans="2:55" ht="12.6" customHeight="1">
+    <row r="39" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>

--- a/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python共通メッセージ定義(SaaS対応).xlsx
+++ b/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python共通メッセージ定義(SaaS対応).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="10530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="23040" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -147,12 +147,12 @@
     <definedName name="品目タイプ">#REF!</definedName>
     <definedName name="付加ＦＦ">'[10]６（過去）'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -580,10 +580,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Issue1.3</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>SCSK細沼</t>
     <rPh sb="4" eb="6">
       <t>ホソヌマ</t>
@@ -610,6 +606,26 @@
     <rPh sb="25" eb="27">
       <t>セツゾク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Issue1.4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_本稼動_19878 502bad gatewayエラー対応</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CCDE0011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[エラー]　502または504系のエラーが発生したため上限回数まで試行しましたが、{1}を起動できませんでした。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1288,6 +1304,15 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1297,14 +1322,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1341,30 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3334,7 +3350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3691,7 +3707,7 @@
         <v>66</v>
       </c>
       <c r="D17" s="80">
-        <v>45198</v>
+        <v>45384</v>
       </c>
       <c r="E17" s="79"/>
     </row>
@@ -3711,7 +3727,7 @@
         <v>68</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E19" s="82"/>
     </row>
@@ -4068,404 +4084,412 @@
   <sheetData>
     <row r="1" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="89" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="89" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="93"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="101"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A3" s="94">
+      <c r="A3" s="102">
         <v>44762</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97" t="s">
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="98" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="100"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="108"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A4" s="101">
+      <c r="A4" s="89">
         <v>44862</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="83" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="83" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="102" t="s">
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="104"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="95"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A5" s="101">
+      <c r="A5" s="89">
         <v>44979</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="83" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="83" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="105" t="s">
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="104"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="95"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A6" s="101">
+      <c r="A6" s="89">
         <v>45028</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="83" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="83" t="s">
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="105" t="s">
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="103"/>
-      <c r="AO6" s="104"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="95"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A7" s="101">
+      <c r="A7" s="89">
         <v>45036</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="83" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="83" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="106" t="s">
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="108"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="92"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A8" s="101">
+      <c r="A8" s="89">
         <v>45198</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="83" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="83" t="s">
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="107"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="107"/>
-      <c r="AO8" s="108"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="92"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="36"/>
+      <c r="A9" s="89">
+        <v>45384</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="92"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
@@ -4769,19 +4793,19 @@
       <c r="AO16" s="36"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="85"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="34"/>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
@@ -4812,19 +4836,19 @@
       <c r="AO17" s="36"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18" s="83"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
       <c r="N18" s="34"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
@@ -4855,19 +4879,19 @@
       <c r="AO18" s="36"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="85"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="34"/>
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
@@ -4898,19 +4922,19 @@
       <c r="AO19" s="36"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88"/>
       <c r="N20" s="34"/>
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
@@ -4941,19 +4965,19 @@
       <c r="AO20" s="36"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
       <c r="N21" s="34"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
@@ -4984,19 +5008,19 @@
       <c r="AO21" s="36"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="85"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
       <c r="N22" s="34"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
@@ -5027,19 +5051,19 @@
       <c r="AO22" s="36"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="85"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
       <c r="N23" s="34"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
@@ -5070,19 +5094,19 @@
       <c r="AO23" s="36"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="85"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="88"/>
       <c r="N24" s="34"/>
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
@@ -5113,19 +5137,19 @@
       <c r="AO24" s="36"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="85"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="88"/>
       <c r="N25" s="34"/>
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
@@ -5156,19 +5180,19 @@
       <c r="AO25" s="36"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="85"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="88"/>
       <c r="N26" s="34"/>
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
@@ -5199,19 +5223,19 @@
       <c r="AO26" s="36"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="88"/>
       <c r="N27" s="34"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
@@ -5242,19 +5266,19 @@
       <c r="AO27" s="36"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="85"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="88"/>
       <c r="N28" s="34"/>
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
@@ -5285,19 +5309,19 @@
       <c r="AO28" s="36"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="88"/>
       <c r="N29" s="34"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
@@ -5328,19 +5352,19 @@
       <c r="AO29" s="36"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="88"/>
       <c r="N30" s="34"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
@@ -5371,19 +5395,19 @@
       <c r="AO30" s="36"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="85"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="88"/>
       <c r="N31" s="34"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
@@ -5414,19 +5438,19 @@
       <c r="AO31" s="36"/>
     </row>
     <row r="32" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="88"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
       <c r="N32" s="37"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
@@ -5457,13 +5481,73 @@
       <c r="AO32" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:I31"/>
+  <mergeCells count="80">
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="N2:AO2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="N3:AO3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="N5:AO5"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="N6:AO6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="N7:AO7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="N8:AO8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:AO9"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A29:E29"/>
@@ -5472,68 +5556,12 @@
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="N8:AO8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="N6:AO6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="N7:AO7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:AO4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="N5:AO5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="N2:AO2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="N3:AO3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:I31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -5550,7 +5578,7 @@
   </sheetPr>
   <dimension ref="B1:BD39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7280,20 +7308,20 @@
       <c r="BC30" s="28"/>
     </row>
     <row r="31" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="74" t="s">
-        <v>90</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
@@ -7335,20 +7363,20 @@
       <c r="BC31" s="28"/>
     </row>
     <row r="32" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="24" t="s">
-        <v>22</v>
+      <c r="B32" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="74" t="s">
+        <v>94</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
@@ -7390,7 +7418,9 @@
       <c r="BC32" s="28"/>
     </row>
     <row r="33" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -7400,7 +7430,9 @@
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
       <c r="K33" s="26"/>
-      <c r="L33" s="24"/>
+      <c r="L33" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
